--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.206</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.194</v>
+        <v>15.842</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.207</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.326</v>
+        <v>20.916</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.384</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.383</v>
+        <v>8.997999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.15696535128085</v>
+        <v>15.06049668776723</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.57955848278377</v>
+        <v>16.58155931494531</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.08111190887892</v>
+        <v>23.79589749697027</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.61873971408072</v>
+        <v>2.052829483483496</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.45750972556123</v>
+        <v>16.09117514243201</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.26290751147447</v>
+        <v>19.60132721263193</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.60309944391841</v>
+        <v>3.402739938473477</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.48202387653535</v>
+        <v>28.78200511213371</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.00902630873773</v>
+        <v>34.82546054261252</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.59669216018515</v>
+        <v>17.64765065224066</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.043665240048</v>
+        <v>25.55890745901042</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.68514278751243</v>
+        <v>27.52754740456658</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.31593216506326</v>
+        <v>12.62827365842861</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.67353352209459</v>
+        <v>12.66999284775756</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.05181504659659</v>
+        <v>23.99382229425817</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.34096290878356</v>
+        <v>19.27299400410132</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.95844190055141</v>
+        <v>24.85842941336771</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.48126069154627</v>
+        <v>30.59609661304168</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18.76469993349357</v>
+        <v>1.890391877886376</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.81660917733608</v>
+        <v>11.74414230513802</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.64121721515271</v>
+        <v>16.93266924589921</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.78332215125086</v>
+        <v>-1.701117157761868</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.85974866341739</v>
+        <v>24.15865437132129</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.15691762507188</v>
+        <v>15.61948766965725</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.5795276158449</v>
+        <v>27.70210356205215</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.08108805644368</v>
+        <v>31.24842028892659</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>13.61869999811772</v>
+        <v>3.873998199711227</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.45748760179395</v>
+        <v>33.59565418178457</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.26289294698377</v>
+        <v>34.63051402033679</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>17.60306258125265</v>
+        <v>8.434592904636791</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.48200329312206</v>
+        <v>48.76637486732551</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.00901275995744</v>
+        <v>50.9067087345733</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.59667615566161</v>
+        <v>47.87436568934996</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>37.04365497402654</v>
+        <v>54.27295564379688</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.6851357396185</v>
+        <v>55.06015785420956</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.31590567913363</v>
+        <v>26.25171198047588</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.67352308132742</v>
+        <v>45.04473192464167</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>40.05181119635039</v>
+        <v>51.02663707069161</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.3409235894257</v>
+        <v>22.3273671110139</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.95841965925734</v>
+        <v>39.65178274430943</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.48124554308399</v>
+        <v>42.62514329941112</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.76466852139041</v>
+        <v>8.161526457216699</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.81659559681219</v>
+        <v>35.12240196594422</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.64121127280347</v>
+        <v>38.71030243041875</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.78329367517935</v>
+        <v>8.667750005426118</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.85973668844503</v>
+        <v>50.93269976586291</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.15758011081149</v>
+        <v>7.713783414736501</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.58018079256324</v>
+        <v>21.00513644748372</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.08173524280945</v>
+        <v>26.4892229069954</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>13.61937750575222</v>
+        <v>-0.6927346544030932</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.45815549182239</v>
+        <v>30.17101103896772</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.26355434069358</v>
+        <v>33.46579141861091</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.603737553068</v>
+        <v>4.374948261969653</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.48266939303635</v>
+        <v>46.49590510227787</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.00967283817</v>
+        <v>50.69112068381341</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.59734445264986</v>
+        <v>46.98226694613308</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>37.0443191006075</v>
+        <v>52.33952945872599</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.68579711717374</v>
+        <v>55.44490436611844</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.31657726784798</v>
+        <v>17.5688051149449</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.67418609577676</v>
+        <v>40.45871899950495</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>40.05246837427677</v>
+        <v>48.27999597378607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.34158720430794</v>
+        <v>13.72679937902598</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.95907379303031</v>
+        <v>32.45476839677244</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.48189367866487</v>
+        <v>37.83291349576746</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.76534737536348</v>
+        <v>2.644604033274792</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.81726464025428</v>
+        <v>31.01035809309028</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.64187381743556</v>
+        <v>37.32155372384142</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.78396997367824</v>
+        <v>3.918891494166221</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.86040393654005</v>
+        <v>48.20768552800183</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>15.15786851851841</v>
+        <v>4.61840461198884</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.58048329652789</v>
+        <v>16.80957951969956</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.08203816317057</v>
+        <v>25.99299706260618</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.61965865418648</v>
+        <v>2.116174437450443</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.45845102854694</v>
+        <v>29.26680582269825</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.26385039197615</v>
+        <v>35.92554541639291</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.60402604521771</v>
+        <v>3.188449102294559</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.48297120478915</v>
+        <v>41.93200267207504</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>33.00997509811532</v>
+        <v>50.14330597080459</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.59765097360054</v>
+        <v>35.79702968102683</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.0446306589203</v>
+        <v>41.98307167188997</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.68610896528558</v>
+        <v>48.18611865777527</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.31687549615726</v>
+        <v>11.66560101024581</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.67449646628011</v>
+        <v>31.79612029614342</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.05277932396569</v>
+        <v>45.68092734540627</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>20.34188180712358</v>
+        <v>10.5617614223782</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.95938275545981</v>
+        <v>27.76445616091857</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.48220302871837</v>
+        <v>36.50782244065124</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>18.76563481985109</v>
+        <v>3.539051193963619</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.81756675899103</v>
+        <v>27.55989059464008</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.64217641732044</v>
+        <v>36.87096945603562</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.78426476171254</v>
+        <v>0.6133978616170204</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.86071230947729</v>
+        <v>40.91009013633334</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.40406529195749</v>
+        <v>33.62691569412567</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.08837342185287</v>
+        <v>17.62578485690006</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.62660291540524</v>
+        <v>28.81608273022943</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.28644511894463</v>
+        <v>33.51694822998655</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>30.73750537499692</v>
+        <v>8.259135588907302</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.29777554271146</v>
+        <v>21.18338045013695</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45.68933026651127</v>
+        <v>29.74118797880945</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.11992775296807</v>
+        <v>15.0701962599149</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.66001368641949</v>
+        <v>22.91453253137815</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.18566821895021</v>
+        <v>32.06276085145663</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.00827293316922</v>
+        <v>-4.071829461843233</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.98316223424144</v>
+        <v>11.40824311022155</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.81227337523381</v>
+        <v>17.31630894682403</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.01304654792471</v>
+        <v>-5.070580592986683</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.01798033174437</v>
+        <v>27.64161346404905</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.56529263836957</v>
+        <v>40.6734343481441</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.5794086118472</v>
+        <v>28.84724511017291</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.09614302356652</v>
+        <v>40.76862512592021</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.73657492909376</v>
+        <v>47.18476033802031</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>39.21398661740211</v>
+        <v>5.65265947464292</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.71195012896474</v>
+        <v>26.02329906062565</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.09910049183814</v>
+        <v>38.83485689193861</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.40406042418256</v>
+        <v>57.49985698292494</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.08836603489243</v>
+        <v>53.67062460872106</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.62660137337862</v>
+        <v>61.74447060894997</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>44.28644683223393</v>
+        <v>65.32682559981154</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.73748746250316</v>
+        <v>27.91757644858626</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>42.29777390482988</v>
+        <v>61.03410830945424</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>45.68933528093581</v>
+        <v>65.06584868940308</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.11990744708985</v>
+        <v>24.64146244822692</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.6600104343128</v>
+        <v>44.90596378696958</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.18567200784481</v>
+        <v>49.70066799292889</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.00826104020491</v>
+        <v>10.4687570989008</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.98316815004538</v>
+        <v>44.14166934474264</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.81228687990473</v>
+        <v>46.75638912060705</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>31.01303765215946</v>
+        <v>13.14921960472941</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.01798791558899</v>
+        <v>63.11886813995167</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>46.56530728357239</v>
+        <v>71.36696409494411</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.57942118807069</v>
+        <v>75.54138441784625</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>51.09616144073647</v>
+        <v>83.52454937867611</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>52.73659653096807</v>
+        <v>88.02519232343633</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>39.21398854055443</v>
+        <v>35.50817781117735</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.71196831709896</v>
+        <v>76.96638363287889</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>54.09912527652031</v>
+        <v>83.22065981522874</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.40472164826651</v>
+        <v>57.32674576006727</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.08903535867783</v>
+        <v>50.90573090809005</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.6272664265051</v>
+        <v>57.7509443715235</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>44.28710910693778</v>
+        <v>64.01205497377987</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.73816013318454</v>
+        <v>18.74462403351484</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.29843781500023</v>
+        <v>56.34713066767776</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45.68999335363724</v>
+        <v>62.46346380335578</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.12055636623549</v>
+        <v>17.25923248282362</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.66064990109909</v>
+        <v>39.38694718189348</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.18630545014715</v>
+        <v>46.14905209143137</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.00892446694299</v>
+        <v>6.539157826504724</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.98382179069632</v>
+        <v>42.19358183351852</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.8129339929438</v>
+        <v>47.04766659924701</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.01369858106472</v>
+        <v>10.020648665355</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.01863981516041</v>
+        <v>62.51701769675938</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>46.56595313519932</v>
+        <v>72.80446314933315</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46.58007468396923</v>
+        <v>75.88595466399514</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>51.09681065667139</v>
+        <v>82.46384384886576</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>52.73724298512094</v>
+        <v>89.50239511121052</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>39.21464548799029</v>
+        <v>28.5348400116244</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>50.71261651802768</v>
+        <v>75.1214638454509</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.0997676280212</v>
+        <v>83.06373845664785</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.40503043767634</v>
+        <v>53.66065274635244</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.08934869403969</v>
+        <v>34.65753631827587</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.62758490937585</v>
+        <v>43.57263314618606</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.28742788190169</v>
+        <v>53.11505308056192</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>30.73846504176724</v>
+        <v>10.1917599051167</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.29875513436489</v>
+        <v>44.65124251319858</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>45.69031122250986</v>
+        <v>56.01767544824045</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.12084869097874</v>
+        <v>15.73565086519537</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>40.66095640396404</v>
+        <v>36.79750164752213</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.18661240018318</v>
+        <v>47.73661614965422</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.00921018397171</v>
+        <v>8.399026241637902</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.98412199849773</v>
+        <v>39.96656367072731</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.81323474326397</v>
+        <v>48.7318838062065</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.01399155603892</v>
+        <v>8.093979151584652</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43.01894620447716</v>
+        <v>57.02576565956966</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.56625999578425</v>
+        <v>71.8950269514263</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>46.5803863878262</v>
+        <v>61.96863697147674</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>51.09712744818064</v>
+        <v>71.19306481450761</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.73756009637405</v>
+        <v>82.33976068330313</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.21494888507106</v>
+        <v>20.36418402154581</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.71293216416277</v>
+        <v>64.28974147116665</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.10008387231281</v>
+        <v>78.93404701728011</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>8.451681281105152</v>
+        <v>13.73227215374641</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.94722068630885</v>
+        <v>14.76381198316941</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.44802714960436</v>
+        <v>21.58709169387084</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.607777829733667</v>
+        <v>2.478346576737412</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.52193502897241</v>
+        <v>14.46940608298249</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.32578630850846</v>
+        <v>18.46877919675245</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.64531967575156</v>
+        <v>5.393265520526175</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.59589664248258</v>
+        <v>29.67000984367633</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.12132061662569</v>
+        <v>34.09606582167802</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.58055238748439</v>
+        <v>17.29568567749019</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.05071187680362</v>
+        <v>24.76929813870152</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.68795875936212</v>
+        <v>25.35571724148227</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.2169535196028</v>
+        <v>9.450960592695569</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.64083938949882</v>
+        <v>9.604897348162584</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.01762878848803</v>
+        <v>18.12338106162244</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.80645853702111</v>
+        <v>13.0101629181726</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.50228013181655</v>
+        <v>18.89813668232512</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.02644386363545</v>
+        <v>24.35844026085048</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.92402271945471</v>
+        <v>-1.698821023621459</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.05699562252875</v>
+        <v>7.422620498779143</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.88228412895767</v>
+        <v>13.30877458964705</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.99873454815872</v>
+        <v>-3.038030395971926</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.15204767646423</v>
+        <v>22.80183920363243</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>8.451623463648069</v>
+        <v>10.58456726024636</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.94717987621555</v>
+        <v>21.48969739248856</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.4479932935421</v>
+        <v>25.10414526386964</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>6.607727782224622</v>
+        <v>0.09862404872086827</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.52190273151995</v>
+        <v>27.12811153550149</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.32576150375422</v>
+        <v>28.99195974169362</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.64527247514801</v>
+        <v>5.766812761101196</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.59586587039123</v>
+        <v>44.23960006268473</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.12129681685579</v>
+        <v>45.2011406268193</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.58052602448682</v>
+        <v>41.05528979872656</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.05069127925484</v>
+        <v>47.20369453295396</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.68794135243083</v>
+        <v>46.87639155773934</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.21691654767604</v>
+        <v>16.67348960708094</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.64081860369226</v>
+        <v>34.87732166006336</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.01761453323832</v>
+        <v>38.47013689176092</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>13.80640924629896</v>
+        <v>11.38542849617219</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.50224807486248</v>
+        <v>28.30520401637338</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.0264188393617</v>
+        <v>31.47089619266692</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>11.9239810959983</v>
+        <v>-0.6641416362652954</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.05697199658223</v>
+        <v>24.90963076946372</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.88226807498781</v>
+        <v>29.54569488364865</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>15.99869585663782</v>
+        <v>1.583989943611474</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.15202564276298</v>
+        <v>43.04751722427915</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.452293997036403</v>
+        <v>3.615322620309545</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.94784101030663</v>
+        <v>15.61359087270947</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.44864849267557</v>
+        <v>21.12647111049955</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.608413818510272</v>
+        <v>-3.807497056083516</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>19.5225790520102</v>
+        <v>24.31124693345183</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.32643138838229</v>
+        <v>28.33150567533525</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.64595583834037</v>
+        <v>2.28887667443772</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.59654027062273</v>
+        <v>42.42305494852471</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.12196525187709</v>
+        <v>45.39761606658212</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.58120274887091</v>
+        <v>40.33424185182895</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.0513638042049</v>
+        <v>45.42333997570458</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>31.68861117029067</v>
+        <v>47.42325079555428</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>18.21759665532456</v>
+        <v>8.18556699709794</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.64149005221978</v>
+        <v>30.33305060894574</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.01828019884626</v>
+        <v>35.73311267737026</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.80708069384466</v>
+        <v>3.347582030515699</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.50290994379491</v>
+        <v>21.54479624130645</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.02707476479337</v>
+        <v>27.06838673323591</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>11.92466826561578</v>
+        <v>-5.915027344172611</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.05764924972036</v>
+        <v>21.00062963776267</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.88293888899451</v>
+        <v>28.24680809283322</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>15.99938032678822</v>
+        <v>-2.989981606060294</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.15270096435884</v>
+        <v>40.35652944958417</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.452576571643828</v>
+        <v>1.455006747790922</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.94813769584995</v>
+        <v>12.64850187183641</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.44894567038256</v>
+        <v>21.4189526053161</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>6.608688683072934</v>
+        <v>-0.3590650686458865</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.52286831344232</v>
+        <v>24.34879329624519</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>23.32672124551508</v>
+        <v>31.32901956222546</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.64623815687908</v>
+        <v>2.187718363310015</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.59683591838411</v>
+        <v>39.2500279867663</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.122261423479</v>
+        <v>45.82823905757959</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.58150297823809</v>
+        <v>31.50490940208084</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.05166909596839</v>
+        <v>37.12502483402716</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.68891677975123</v>
+        <v>41.93061590538616</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.21788853351237</v>
+        <v>4.55913064137474</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.64179407812403</v>
+        <v>24.16567828812441</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.01858487668023</v>
+        <v>35.20454133667477</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>13.80736974675298</v>
+        <v>0.5025776803630642</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.50321337572121</v>
+        <v>17.46849679999025</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.02737866516625</v>
+        <v>25.87902401760329</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>11.92494970871718</v>
+        <v>-4.989384148263294</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.05794538051055</v>
+        <v>17.87804890694619</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.88323558741713</v>
+        <v>27.67385351288192</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>15.99966922758868</v>
+        <v>-5.786527881864313</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.15300346415113</v>
+        <v>33.87464560775157</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.69685056677147</v>
+        <v>30.64055140381231</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>31.25256199860984</v>
+        <v>13.67784014704933</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.81529091937258</v>
+        <v>24.86124371233629</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.47182117498902</v>
+        <v>28.32794901265664</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.8165326776153</v>
+        <v>2.865804476823772</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>35.44777403563133</v>
+        <v>15.8954792932228</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.84004229999091</v>
+        <v>22.69641350384672</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.05454229236453</v>
+        <v>13.32330346444352</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.67533139510872</v>
+        <v>22.19318085539641</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.20205338010066</v>
+        <v>31.2386750309199</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>20.64389529344885</v>
+        <v>-5.534804937868611</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.70239436209278</v>
+        <v>10.04240034804414</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.53188292842026</v>
+        <v>16.65427701738145</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.70735842191895</v>
+        <v>-3.226398570863804</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.7915888469819</v>
+        <v>30.19314080494667</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.33909891101639</v>
+        <v>41.76048501325073</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40.23069701423123</v>
+        <v>28.47537104976104</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.77292023089255</v>
+        <v>40.12762575473764</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>46.40984349760206</v>
+        <v>46.12944081933082</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.77927720919243</v>
+        <v>3.04915253772754</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.35018230405979</v>
+        <v>24.49893318681436</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.7376368336969</v>
+        <v>35.48327042513233</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.69683557832187</v>
+        <v>48.43937642327228</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.25254438120554</v>
+        <v>42.13246857025507</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.81527917581109</v>
+        <v>50.40122012221241</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>37.47181265899788</v>
+        <v>53.03163917897302</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.81650440338966</v>
+        <v>15.00248879922686</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>35.44776218356218</v>
+        <v>47.52726201065025</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.84003704093063</v>
+        <v>50.22064802400621</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.05451268558034</v>
+        <v>17.51831338810246</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.67531900390187</v>
+        <v>38.09178826630992</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.20204797061174</v>
+        <v>43.25718856264558</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>20.64387387125731</v>
+        <v>3.071625087252446</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.7023909210766</v>
+        <v>36.17279425100548</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>37.53188701103488</v>
+        <v>39.8380778824027</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.70733999365078</v>
+        <v>8.560328945017663</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.79158706114528</v>
+        <v>58.4424126872328</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>40.33910412540296</v>
+        <v>65.68715453878144</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>40.23070005619896</v>
+        <v>66.91061981018925</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>44.77292914514811</v>
+        <v>74.84750923558698</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>46.40985556977094</v>
+        <v>79.2166852667724</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>32.77926946542687</v>
+        <v>24.73227106332002</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.35019097833266</v>
+        <v>66.57426035974473</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>47.73765204606657</v>
+        <v>71.42698692747021</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.69750493167252</v>
+        <v>48.250980668572</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.25322190525003</v>
+        <v>39.1271476438161</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.81595239819242</v>
+        <v>46.14516571538954</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.47248314508797</v>
+        <v>51.45854490335364</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.81718536970646</v>
+        <v>5.589538903519784</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.44843429805928</v>
+        <v>42.43927600419383</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.84070337063783</v>
+        <v>47.17603858051086</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.05516920738288</v>
+        <v>10.48502506114378</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.67596597269754</v>
+        <v>32.80008427339442</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.20268896826217</v>
+        <v>39.88428461385521</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.64454537615904</v>
+        <v>-0.7802359359763464</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.70305253049737</v>
+        <v>34.24460720948446</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>37.53254215124098</v>
+        <v>40.0324055985202</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.70800885782162</v>
+        <v>5.409536210142338</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.79224679457013</v>
+        <v>57.68153447153733</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.33975786547832</v>
+        <v>66.91530355106482</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.23136150776583</v>
+        <v>66.82837224139178</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>44.77358628463389</v>
+        <v>73.34553535652717</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>46.41050998776315</v>
+        <v>80.25621834143215</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.77993446334809</v>
+        <v>17.33623188431159</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>44.35084713568201</v>
+        <v>64.16021081592058</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>47.73830240526271</v>
+        <v>70.6578921641123</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.69780792851499</v>
+        <v>44.94431500904668</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.2535292474286</v>
+        <v>24.68764277695715</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.81626491386884</v>
+        <v>33.45167368831954</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.4727959834462</v>
+        <v>41.72672722989836</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>23.81748422525522</v>
+        <v>-1.262149333883396</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.44874557394785</v>
+        <v>32.63768832268602</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.84101527370256</v>
+        <v>42.17618252058682</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.05545653423032</v>
+        <v>9.73147345502537</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.67626749562707</v>
+        <v>31.30368997741374</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.20299101751164</v>
+        <v>42.08452012916547</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.64482564943491</v>
+        <v>1.58951941835517</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.7033473065144</v>
+        <v>32.85803899066315</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>37.53283755443984</v>
+        <v>42.10707094875261</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.70829651016248</v>
+        <v>4.452241309227563</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.79254787399805</v>
+        <v>53.49965211468373</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.34005949515002</v>
+        <v>66.85459931617106</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>40.23166778898553</v>
+        <v>55.17388652550156</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.77389767900038</v>
+        <v>63.99710572344662</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.41082173064181</v>
+        <v>74.70170045437092</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>32.78023237682312</v>
+        <v>11.3065274750131</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.35115730600974</v>
+        <v>55.69803576259184</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>47.73861324941689</v>
+        <v>68.44833627517505</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.58804307743785</v>
+        <v>14.62487629862352</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.15880877027283</v>
+        <v>20.18080364025056</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.67936549110629</v>
+        <v>26.30406719354511</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>14.99864307744129</v>
+        <v>1.760812666869985</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.99084296572885</v>
+        <v>19.91112156238373</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>31.81748386773165</v>
+        <v>23.0108321797149</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>19.02982712474723</v>
+        <v>4.410522480041099</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.05109288023887</v>
+        <v>35.39103877403778</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.59760595694777</v>
+        <v>39.87761452079121</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.12809448100892</v>
+        <v>22.55547003200587</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>38.62534478166121</v>
+        <v>30.76080560394269</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>40.27471298913304</v>
+        <v>32.03177671687098</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.73466291621926</v>
+        <v>13.99672146548349</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>38.22500521116203</v>
+        <v>17.52546963575231</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.62240235582101</v>
+        <v>27.85544290421118</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.00780109989735</v>
+        <v>20.73979941794997</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.77660595778945</v>
+        <v>30.06859130879267</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.31848723950872</v>
+        <v>33.78743620713973</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>20.38129411823973</v>
+        <v>2.822297905112098</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.59002189256031</v>
+        <v>16.67939441711491</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.43588758151403</v>
+        <v>20.56603780106528</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.44816802198525</v>
+        <v>0.7144685763667589</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.67005655728739</v>
+        <v>31.9395464637878</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>16.5879969220535</v>
+        <v>16.57193423072795</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.15877970716563</v>
+        <v>32.66725908760742</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.67934345371464</v>
+        <v>34.95931599845119</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>14.9986050000721</v>
+        <v>4.610212555130406</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.99082272529941</v>
+        <v>38.43177367188358</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.81747120012438</v>
+        <v>38.84155557042519</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.02979191943638</v>
+        <v>10.49673971970151</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>31.05107418156364</v>
+        <v>56.40633059113634</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>34.59759430524137</v>
+        <v>56.81070091204714</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>34.12808031908593</v>
+        <v>53.60052324559553</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.62533642813935</v>
+        <v>60.23183704985178</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.27470785807289</v>
+        <v>60.3141097766794</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.73463810020075</v>
+        <v>28.32071885784379</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.22499665823909</v>
+        <v>50.56926997332056</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.62240040384886</v>
+        <v>55.40130378837389</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.00776363289877</v>
+        <v>24.41044267418144</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.7765858062571</v>
+        <v>45.43566478869008</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.31847419155444</v>
+        <v>46.20422044558191</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>20.3812646271195</v>
+        <v>9.310890984775686</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.5900104824965</v>
+        <v>40.24509574635869</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.43588382260355</v>
+        <v>42.28933637637621</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.44814148734012</v>
+        <v>11.30515674411189</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.67004675549669</v>
+        <v>58.89046312964325</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.58866242943754</v>
+        <v>9.61016377968102</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.15943575885911</v>
+        <v>26.94994278987639</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.67999348386991</v>
+        <v>31.10044147812429</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.99928569863244</v>
+        <v>0.9250165286921721</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.99149365276608</v>
+        <v>35.94224479602175</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.81813559630175</v>
+        <v>38.50856957813389</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.03047002261802</v>
+        <v>7.328425292010397</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>31.05174327105326</v>
+        <v>55.059424850483</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.59825734097416</v>
+        <v>57.43306956392988</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>34.12875169044362</v>
+        <v>53.60410804099936</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>38.62600357073753</v>
+        <v>59.1975797217593</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.27537224355682</v>
+        <v>61.56717167798362</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.73531286409177</v>
+        <v>20.50872626363105</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>38.22566271424184</v>
+        <v>46.89641968370697</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>41.62306059157497</v>
+        <v>53.47494259629195</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.00843005493587</v>
+        <v>16.45769123574434</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.77724259669521</v>
+        <v>38.92363888984511</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.31912495312579</v>
+        <v>42.00927465785946</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>20.38194645855926</v>
+        <v>4.375060163567358</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.59068234573449</v>
+        <v>36.76886743237145</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.43654915268551</v>
+        <v>41.4234506443741</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.44882070113611</v>
+        <v>7.140996272652902</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.67071677325691</v>
+        <v>56.78371352889732</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.58895461291556</v>
+        <v>6.949601041276001</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.159742159613</v>
+        <v>23.25531232176079</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.68030033128098</v>
+        <v>31.17792709234365</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>14.99957046886514</v>
+        <v>4.366758887456317</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.99179293230661</v>
+        <v>35.74273795233327</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.81843542306919</v>
+        <v>41.78270655498537</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.03076222745785</v>
+        <v>6.799309173979285</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.05204890758468</v>
+        <v>51.2206619314895</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.59856345584803</v>
+        <v>57.68783295666793</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.12906200932338</v>
+        <v>43.33951914239188</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.62631897416745</v>
+        <v>49.8262937673006</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>40.27568795053489</v>
+        <v>55.23255032843272</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.73561479114884</v>
+        <v>15.56486343300711</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>38.22597688063953</v>
+        <v>39.26467869445563</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.62337536848345</v>
+        <v>51.94115882796987</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.0087287275978</v>
+        <v>13.62814793751543</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.77755575295657</v>
+        <v>34.65407719727494</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.31943852803075</v>
+        <v>41.17797732335052</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.38223782136727</v>
+        <v>5.818893887138163</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.59098850696131</v>
+        <v>33.95640736597719</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.43685582850284</v>
+        <v>41.72243065600523</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.44911949980129</v>
+        <v>4.422043094479111</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.67102927180672</v>
+        <v>50.16035047434943</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>40.23389930857817</v>
+        <v>38.86561141806288</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>39.8630973782799</v>
+        <v>24.5021073317233</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>44.45275979260828</v>
+        <v>35.97973355215402</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>46.12059410465051</v>
+        <v>39.50418508836347</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>32.3978472588299</v>
+        <v>12.75935972798911</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>44.09387751611655</v>
+        <v>29.15396439754159</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>47.50462317700699</v>
+        <v>35.97611285850203</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.89066530893991</v>
+        <v>16.0243312452555</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.58126030301262</v>
+        <v>27.38152531776817</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>46.12600963941739</v>
+        <v>34.49600115595905</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.73223498785273</v>
+        <v>-4.797647771309865</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.86312145131447</v>
+        <v>14.49236884191012</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>45.71350314396008</v>
+        <v>19.01061436507496</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>32.78589794477018</v>
+        <v>-4.157861438281426</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.93555477073463</v>
+        <v>33.63531911032442</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.50237754960077</v>
+        <v>44.13294056592844</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>48.465818901608</v>
+        <v>33.71962726205081</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.03395986876534</v>
+        <v>45.81879509778253</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>54.68227633084497</v>
+        <v>51.1123699834109</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>40.9864556100854</v>
+        <v>8.048655173807223</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.61951722976981</v>
+        <v>31.73180340420109</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.02584726504439</v>
+        <v>42.67527115976091</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>40.23389662580075</v>
+        <v>62.71233456286203</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>39.86309212228644</v>
+        <v>60.53372413411768</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>44.452760452945</v>
+        <v>68.82874991148361</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>46.12059802443533</v>
+        <v>71.22159122286826</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>32.39783130258532</v>
+        <v>32.31638737978511</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.09387805662194</v>
+        <v>68.84807114751629</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.50463037981029</v>
+        <v>70.95994286733088</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.89064705189281</v>
+        <v>25.23695617848802</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.58125933730118</v>
+        <v>48.96588077241577</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.12601572538779</v>
+        <v>51.53735438587472</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.73222521651478</v>
+        <v>8.981400043129728</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.86312973842529</v>
+        <v>46.42956668800593</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.71351903288756</v>
+        <v>47.40593328477229</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.78589119203937</v>
+        <v>13.29442434752878</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>44.93556472958758</v>
+        <v>68.29269483601811</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>48.50239458156241</v>
+        <v>73.80118076064798</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>48.46583381499677</v>
+        <v>79.41039482473883</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>53.0339806946325</v>
+        <v>87.50429928685389</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>54.68230034542947</v>
+        <v>90.86969438525534</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>40.98645969568235</v>
+        <v>36.82176428598126</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.61953780276725</v>
+        <v>81.54209456333751</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>56.02587444451417</v>
+        <v>85.73648521783494</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>40.23456058806326</v>
+        <v>63.06282223757296</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>39.86376429892127</v>
+        <v>58.35879102618767</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>44.45342829892744</v>
+        <v>65.42846404276145</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.12126308392961</v>
+        <v>70.46462048615612</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>32.39850692931275</v>
+        <v>23.70630421523871</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>44.09454478539745</v>
+        <v>64.76474385568068</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>47.50529123981493</v>
+        <v>68.85919110563285</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.89129868180942</v>
+        <v>18.301986460298</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.58190136498267</v>
+        <v>43.92736448134033</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.12665169717887</v>
+        <v>48.37686344012502</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.73289152108968</v>
+        <v>5.435945284479292</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.8637860998042</v>
+        <v>44.9166224234788</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.71416883159196</v>
+        <v>48.0174049183648</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>32.78655493687422</v>
+        <v>10.55082630600393</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>44.93621929993382</v>
+        <v>68.10528763846</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.50304307186182</v>
+        <v>75.55691197274305</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>48.46649006052068</v>
+        <v>80.14675879908006</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>53.03463260006073</v>
+        <v>86.83748282496211</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>54.68294948064759</v>
+        <v>92.70359755185589</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.98711949565833</v>
+        <v>30.22060611838356</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>52.62018871926016</v>
+        <v>80.10799679374188</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.0265194796462</v>
+        <v>85.88653584265796</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.23487353394896</v>
+        <v>60.14832646114203</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.86408173836236</v>
+        <v>42.97031101723729</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>44.45375093417724</v>
+        <v>52.17569839769934</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.12158602551744</v>
+        <v>60.42578500235453</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>32.39881584097483</v>
+        <v>16.02617854485166</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.09486620777893</v>
+        <v>54.03535955616002</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.50561324379255</v>
+        <v>63.41922479836924</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.89159514081176</v>
+        <v>17.83344015179998</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.58221212383251</v>
+        <v>42.4735172621007</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.12696293412527</v>
+        <v>51.17496240913599</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.73318122540559</v>
+        <v>8.567625194902266</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.8640904167216</v>
+        <v>44.04500406818454</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.71447372427541</v>
+        <v>51.17225113447614</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>32.78685199222632</v>
+        <v>9.939923166335408</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.93652988245869</v>
+        <v>64.01392268704092</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>48.50335415632298</v>
+        <v>76.12553618731792</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.46680594229623</v>
+        <v>67.81551877939702</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.03495361746839</v>
+        <v>77.21438521517712</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.6832708317843</v>
+        <v>87.11751885921885</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>40.98742697072178</v>
+        <v>23.65506706016479</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.62050854129591</v>
+        <v>70.96198348621826</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>56.02683993176689</v>
+        <v>83.48703848548422</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.684646596257565</v>
+        <v>15.72975624981325</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.98137997959491</v>
+        <v>12.1537808864598</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.44672205141923</v>
+        <v>17.73334817578013</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.771328874527189</v>
+        <v>3.205803798790416</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.48018691243441</v>
+        <v>8.262006685682938</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.24440393649848</v>
+        <v>11.60698459974967</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.748136544025257</v>
+        <v>4.475311691867351</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>18.50847847185904</v>
+        <v>21.09737040620704</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.99732539396388</v>
+        <v>24.99365870865515</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.4675446796348</v>
+        <v>11.01175277253165</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.87165312506587</v>
+        <v>16.92056679237891</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.49184319826708</v>
+        <v>18.20698156936564</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>14.23376890768267</v>
+        <v>8.07460798606991</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.47953400987596</v>
+        <v>3.838759880126137</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.81990105565427</v>
+        <v>10.74773502493554</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.964106399606424</v>
+        <v>16.18868318975013</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.45901638903762</v>
+        <v>17.75005242392229</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.94848342263326</v>
+        <v>23.05461102146524</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.013582585108772</v>
+        <v>2.170005420617859</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.93892496179528</v>
+        <v>5.086604248346337</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.72546791050352</v>
+        <v>11.20663385954171</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>12.02656344115521</v>
+        <v>-0.7085972225201225</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.9874873914993</v>
+        <v>17.83870384740067</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.68458443779873</v>
+        <v>12.83933345310888</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>16.98133453605689</v>
+        <v>19.05094970142267</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>20.44668351028159</v>
+        <v>21.68193357464859</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.771274255933609</v>
+        <v>1.267914815916559</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>15.48014973837981</v>
+        <v>21.17830414023277</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.24437419764647</v>
+        <v>22.66799722125709</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>6.748084731690255</v>
+        <v>5.223439820852807</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.50844280465745</v>
+        <v>35.88310620328949</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.99729664577835</v>
+        <v>36.59049579664693</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.46751339204408</v>
+        <v>34.48472442164666</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.87162751088455</v>
+        <v>39.21424639479034</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.49182074973193</v>
+        <v>39.76169304197725</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.23372720923538</v>
+        <v>15.3467511710274</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.47950822459253</v>
+        <v>28.8986943638808</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.8198817491126</v>
+        <v>31.21387605341005</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>9.964052621427596</v>
+        <v>14.88466950917087</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.45897954922266</v>
+        <v>27.38485624872559</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.94845356471179</v>
+        <v>30.66560178996929</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.013536246399145</v>
+        <v>3.693950445836695</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.93889631182729</v>
+        <v>22.86646697789343</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.72544677599743</v>
+        <v>28.02878583477119</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.02651999179662</v>
+        <v>4.326830815420951</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.98746031356654</v>
+        <v>38.32710222734974</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.685251908289942</v>
+        <v>6.033665340824573</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.98199278452444</v>
+        <v>13.25042975112286</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.44733588901624</v>
+        <v>17.83876012173906</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>2.771957151895805</v>
+        <v>-2.585928995766462</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>15.48082310248096</v>
+        <v>18.31654708438586</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.24504119789837</v>
+        <v>22.03518645376264</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>6.748765009144932</v>
+        <v>1.813204292853445</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>18.50911428925038</v>
+        <v>34.04162909948454</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.99796223177539</v>
+        <v>36.82184231073231</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.46818714247488</v>
+        <v>33.60448026731083</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.8722971309073</v>
+        <v>37.2949366450471</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.49248769337768</v>
+        <v>40.18255192963224</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.23440424794077</v>
+        <v>6.953250207813003</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.48017676307004</v>
+        <v>24.27154620734396</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.82054457161882</v>
+        <v>28.46707890410474</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.964721008190791</v>
+        <v>6.920420966433998</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.45963853685791</v>
+        <v>20.60282324855166</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.94910667290582</v>
+        <v>26.29811695757752</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>8.014220273615262</v>
+        <v>-1.596112651728898</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>20.93957060902916</v>
+        <v>18.81115404864417</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.72611470472947</v>
+        <v>26.65538984775754</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>12.02720137533587</v>
+        <v>-0.2758998753913282</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>23.9881327209837</v>
+        <v>35.50639827005361</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.685526760389504</v>
+        <v>3.461611004076648</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.98228155759007</v>
+        <v>9.659259009020023</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>20.44762513182519</v>
+        <v>17.36577531249009</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.772224307546743</v>
+        <v>0.1179632545654705</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>15.48110446298519</v>
+        <v>17.43228203834341</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.24532312861889</v>
+        <v>23.95782146337647</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>6.749039509539692</v>
+        <v>1.023173403648034</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>18.50940194113121</v>
+        <v>29.99053174803464</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.99825038427243</v>
+        <v>36.22851812251511</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.46847931076087</v>
+        <v>24.19686397552826</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.8725942967604</v>
+        <v>28.30098920400028</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.49278516605572</v>
+        <v>33.87509008784244</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>14.23468818697688</v>
+        <v>2.849534592724101</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.4804726924274</v>
+        <v>17.42607824145708</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.82084112856155</v>
+        <v>27.08066173807331</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>9.965002285037196</v>
+        <v>3.611502622343696</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.45993400069217</v>
+        <v>15.84073222902115</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.9494025836</v>
+        <v>24.27846858121504</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>8.014493953913181</v>
+        <v>-1.438776375951104</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.93985878272278</v>
+        <v>14.73979208149553</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.72640342153178</v>
+        <v>24.97599862415294</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>12.0274824038256</v>
+        <v>-3.787674049807801</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>23.98842716863226</v>
+        <v>28.1162561208121</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.49654108736982</v>
+        <v>26.18319080165779</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.06052290787295</v>
+        <v>10.69993567690128</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.55617242281308</v>
+        <v>20.44375043036627</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>33.19579350452283</v>
+        <v>24.91291494138287</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.75477784108648</v>
+        <v>3.604972543964895</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>31.20556089697721</v>
+        <v>11.79467318274186</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.56225391665587</v>
+        <v>18.57744437646346</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.24777198814473</v>
+        <v>15.58355938196928</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.669392577275</v>
+        <v>20.27034582533452</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.16146905207722</v>
+        <v>28.95801680982936</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.76491010031035</v>
+        <v>-2.825461815228348</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.61752455397062</v>
+        <v>6.640846472026229</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.40832842773308</v>
+        <v>13.4202652180135</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.76763248818359</v>
+        <v>-1.906459581992177</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>32.66109090822366</v>
+        <v>24.37800128380312</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.17293615998479</v>
+        <v>36.19528214600734</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.06899855684915</v>
+        <v>24.51865077665193</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.54452637801106</v>
+        <v>34.58318394658539</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.16466432640613</v>
+        <v>42.11494445030976</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.74709091388995</v>
+        <v>3.310489434271435</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.13891549252261</v>
+        <v>19.60535151272277</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.49090514710223</v>
+        <v>30.58735641487263</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.49652100230353</v>
+        <v>44.51097839214205</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.06050021707686</v>
+        <v>38.92340454706513</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>31.55615551250023</v>
+        <v>45.91830896277565</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>33.19577979706204</v>
+        <v>49.7400595849156</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>19.75474469164961</v>
+        <v>15.80408775303454</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>31.20554389347405</v>
+        <v>43.21724088737363</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.56224345536931</v>
+        <v>46.2449276190452</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.24773781680629</v>
+        <v>20.98494132612433</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.66937532803506</v>
+        <v>37.27095997483053</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.161458734526</v>
+        <v>42.37337682275881</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>16.76488388191538</v>
+        <v>7.140026042463635</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.61751600994255</v>
+        <v>33.91401247087177</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.40832735159518</v>
+        <v>38.06577814741379</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.76760922133876</v>
+        <v>11.18837705515535</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.66108399923563</v>
+        <v>53.75159424185188</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.17293619956654</v>
+        <v>61.56039192955481</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.06899644228787</v>
+        <v>63.58984384504117</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>40.54453004295925</v>
+        <v>70.11547599971564</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>42.1646711252681</v>
+        <v>76.2201338938649</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.74707821157985</v>
+        <v>25.91777419172519</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.13891893364677</v>
+        <v>62.3118894515363</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>43.49091507631073</v>
+        <v>67.54519911219768</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.49718750683502</v>
+        <v>44.25049681218499</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.06117477098327</v>
+        <v>35.68709095298664</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.55682583511223</v>
+        <v>41.45174251576603</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>33.19644741402339</v>
+        <v>47.9684579167556</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.7554225924182</v>
+        <v>6.390125650747624</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.20621310395236</v>
+        <v>37.94171544436395</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.56290694672207</v>
+        <v>43.08880217436035</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.24839135315432</v>
+        <v>14.12334226999807</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.6700194889995</v>
+        <v>32.04784622534518</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.16209698869587</v>
+        <v>39.13708254525116</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>16.76555232612309</v>
+        <v>3.340786975770275</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.61817474326761</v>
+        <v>31.92131455915251</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>33.40897968665219</v>
+        <v>38.27878160076725</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.76827507963945</v>
+        <v>8.102458768259741</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.66174089750869</v>
+        <v>52.94611451938923</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.17358717006429</v>
+        <v>62.8143608577349</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.06965500902162</v>
+        <v>63.3468026087418</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>40.54518436776427</v>
+        <v>68.47811656674008</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>42.16532275912586</v>
+        <v>77.14076093212233</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.74774022905161</v>
+        <v>18.60163495260528</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.13957227058484</v>
+        <v>59.78102532235616</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.49156268085635</v>
+        <v>66.74493364982578</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.49748242920018</v>
+        <v>39.88406309016838</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.0614739911198</v>
+        <v>20.67821380372678</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>31.5571301628772</v>
+        <v>28.05464863336158</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>33.19675205369517</v>
+        <v>37.40577374932676</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>19.75571344882376</v>
+        <v>-0.9403490749025956</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.20651622105162</v>
+        <v>27.4468123211957</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.56321066747502</v>
+        <v>37.21868742821846</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>18.2486711017599</v>
+        <v>12.02314125135692</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.67031324379929</v>
+        <v>28.97656735729504</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>34.16239124773445</v>
+        <v>39.61407724983187</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>16.76582502881681</v>
+        <v>4.055259958697636</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.61846175651647</v>
+        <v>28.6985553196696</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.40926730207816</v>
+        <v>38.35251680403334</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>20.76855505417448</v>
+        <v>5.52438950073628</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>32.66203412125228</v>
+        <v>46.94430309029306</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.17388092131542</v>
+        <v>60.77725080268331</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.06995336080972</v>
+        <v>50.18587286011186</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>40.54548776721586</v>
+        <v>57.48753976089924</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>42.16562649591623</v>
+        <v>69.80893755310987</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.74803033412126</v>
+        <v>11.19764340511225</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.13987447444445</v>
+        <v>49.72746685840659</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>43.49186553459687</v>
+        <v>62.75364597749498</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>6.799505165544087</v>
+        <v>20.70992632855371</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.74845402213377</v>
+        <v>24.13572573477083</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.38296022012438</v>
+        <v>30.75403913166122</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4.991389767816486</v>
+        <v>16.08977361368361</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.37514170771161</v>
+        <v>33.35528149038626</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.3241404072185</v>
+        <v>35.99753617454891</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>9.191821585194205</v>
+        <v>11.90275395520144</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.57565981023287</v>
+        <v>40.38823795993497</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.23582270720446</v>
+        <v>45.58184347413732</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.86038956628391</v>
+        <v>28.33370422685127</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.49256827047734</v>
+        <v>35.52938676599982</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.19763165346686</v>
+        <v>37.1597337400905</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.32027603783466</v>
+        <v>22.33675350440547</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.15998834307822</v>
+        <v>22.52984261706675</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.6661621189376</v>
+        <v>34.06938627983163</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>12.09674854545965</v>
+        <v>21.90380886896867</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.24796091857361</v>
+        <v>28.35784424700993</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.90491343052894</v>
+        <v>32.78377795380436</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.24766907403631</v>
+        <v>12.79988112686738</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.85258054652484</v>
+        <v>24.7514089299248</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.82192351217531</v>
+        <v>28.30562897787525</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.4842676576725</v>
+        <v>2.859913452396658</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.07308723636263</v>
+        <v>30.78454811136001</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>6.799446747396143</v>
+        <v>21.82235818068529</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>19.74841315767337</v>
+        <v>35.70619727835847</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.38292666508013</v>
+        <v>38.52772525895307</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>4.991339495487598</v>
+        <v>18.25068541114351</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>18.3751097535894</v>
+        <v>51.06026185655506</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>22.32411632717105</v>
+        <v>51.07276701902569</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>9.191774335648084</v>
+        <v>17.29323222035467</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.57562951239111</v>
+        <v>60.60654146356595</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.23579973738224</v>
+        <v>61.76819649477684</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.86036409302762</v>
+        <v>58.81593480058669</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.49254877013282</v>
+        <v>64.37761026657759</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.1976155092906</v>
+        <v>64.80174011611066</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.32023971070921</v>
+        <v>36.35613126634675</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.1599687202098</v>
+        <v>55.11848682531209</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.66614936267673</v>
+        <v>61.20084125669334</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>12.09669871524346</v>
+        <v>25.01697371388355</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.24792886916045</v>
+        <v>43.07189241133801</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.90488877329848</v>
+        <v>44.58431189397498</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>10.24762728052604</v>
+        <v>18.88320414333382</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>23.85255731963637</v>
+        <v>47.76625283728063</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.82190824287273</v>
+        <v>49.54173753112829</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.48422897292468</v>
+        <v>13.0400431011756</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.07306573358849</v>
+        <v>57.20885667547819</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>6.800145648599795</v>
+        <v>14.46617714046826</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>19.74910237128837</v>
+        <v>29.58256067489103</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>23.3836096581968</v>
+        <v>34.26943826090624</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>4.992054293385905</v>
+        <v>14.18075620699523</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.37581454120471</v>
+        <v>48.15201880829804</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.32481437157939</v>
+        <v>50.34829254860813</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>9.19248643459057</v>
+        <v>13.76607736198779</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.57633237690103</v>
+        <v>58.88766196823764</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.23649635094754</v>
+        <v>62.02771811880675</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.86106917167669</v>
+        <v>58.49462737343291</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.49324951537374</v>
+        <v>63.01295364315649</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.19831339873667</v>
+        <v>65.71112516067032</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>17.32094815674884</v>
+        <v>28.27200667491002</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.16066824205469</v>
+        <v>51.14376592808486</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.66684282629662</v>
+        <v>58.98087729729542</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>12.09739893615837</v>
+        <v>16.927444318103</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.24861922499175</v>
+        <v>36.41000629631122</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.90557289925282</v>
+        <v>40.24676747647337</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>10.24834362502197</v>
+        <v>13.823273667287</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>23.85326345487374</v>
+        <v>44.13119977335734</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.82260763096745</v>
+        <v>48.54518083458876</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.48494259807098</v>
+        <v>8.783057041337347</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.07376994016835</v>
+        <v>54.9952954718454</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.80043581660345</v>
+        <v>11.60890210972858</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>19.74940725765178</v>
+        <v>25.75695285460344</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>23.38391494856075</v>
+        <v>34.15019389629489</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>4.992336614341895</v>
+        <v>17.47590406732289</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>18.37611188666776</v>
+        <v>47.87827751651352</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.32511222221604</v>
+        <v>53.46957663396196</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>9.192776471197682</v>
+        <v>13.04628788252029</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>21.57663632326043</v>
+        <v>54.94068574984357</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.23680073520768</v>
+        <v>62.09153036495474</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.8613780547591</v>
+        <v>47.9059964221868</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.49356365389583</v>
+        <v>53.38882673139955</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>31.1986278252857</v>
+        <v>59.12841035994487</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>17.32124843753177</v>
+        <v>22.85792154775183</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.160981207498</v>
+        <v>43.14403285409418</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.66715636715099</v>
+        <v>57.01907586660482</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.09769548972756</v>
+        <v>14.23820950101248</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.24893077049174</v>
+        <v>32.35315101582586</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.90588481807175</v>
+        <v>39.56524677590136</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.24863243558284</v>
+        <v>15.46012451313655</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>23.85356758695367</v>
+        <v>41.59304733843763</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.82291223262936</v>
+        <v>49.04374015715669</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.48523912548958</v>
+        <v>6.212942801758548</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.07408065295922</v>
+        <v>48.61090077434434</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>30.75158450340802</v>
+        <v>38.62744866310396</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.47665143039255</v>
+        <v>23.62332914623429</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>35.20348337851063</v>
+        <v>33.66085085880547</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.92771833449974</v>
+        <v>37.64070020095866</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.86383311006024</v>
+        <v>14.0893277385581</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>34.91399324596541</v>
+        <v>26.25698341278997</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>38.43434368171049</v>
+        <v>34.1166171533207</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.38954328316436</v>
+        <v>17.85275257049262</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>33.46026551414437</v>
+        <v>26.45151596778712</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.12044136480871</v>
+        <v>34.061066384024</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.02323174392753</v>
+        <v>6.949247238956733</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.54805626085064</v>
+        <v>24.39195403224744</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.52242673834304</v>
+        <v>28.42388329171377</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.24712293669326</v>
+        <v>-0.3480191895125664</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>35.76157689095925</v>
+        <v>34.25803610151823</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>39.44351642647237</v>
+        <v>45.45352052318441</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>39.509977403515</v>
+        <v>34.75991854156266</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.21431235203026</v>
+        <v>45.50025454272739</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>45.91859626781199</v>
+        <v>51.07013338864991</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.88080843610738</v>
+        <v>11.32884582052856</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.86606044302953</v>
+        <v>30.87790177164826</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.38207561500762</v>
+        <v>42.73544853623179</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.75157040544831</v>
+        <v>61.99888951817124</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.47663476291827</v>
+        <v>59.35108972267579</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>35.20347279431088</v>
+        <v>66.14985084408036</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.92771114571763</v>
+        <v>68.9800464601683</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.86380554250777</v>
+        <v>33.59879988738612</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.91398262102558</v>
+        <v>65.7293737267392</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.43433998895243</v>
+        <v>68.92742229110053</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>20.38951346037257</v>
+        <v>26.98835147472699</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.46025344685983</v>
+        <v>47.86009116412112</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>37.12043663584502</v>
+        <v>50.97492231273435</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.02321048327364</v>
+        <v>20.78796835298713</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.54805354308847</v>
+        <v>56.23746436864306</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.52243192695023</v>
+        <v>56.80479795065139</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>23.24710485054103</v>
+        <v>17.16608682402472</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.76157596438181</v>
+        <v>68.85825657994346</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>39.44352285711626</v>
+        <v>75.12826338601613</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>39.50998173253214</v>
+        <v>80.59888530549608</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.214322760762</v>
+        <v>87.27794178865926</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>45.9186099981672</v>
+        <v>90.90934301440143</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.88080173129823</v>
+        <v>40.49919675684055</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.86607067070278</v>
+        <v>80.90183038418505</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.38209271689053</v>
+        <v>86.0743171014791</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.75226835743748</v>
+        <v>62.25194527214367</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.47734105582958</v>
+        <v>57.1227324440344</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>35.20417465033654</v>
+        <v>62.69188945505826</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.92841011504167</v>
+        <v>68.15130596858211</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.8645152592578</v>
+        <v>24.9862758369556</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.91468322136699</v>
+        <v>61.61123221620923</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.43503452874951</v>
+        <v>66.80276824810096</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.39019819998564</v>
+        <v>20.01666385361142</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.46092835128402</v>
+        <v>42.76833332054923</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>37.12110528286502</v>
+        <v>47.77307244833969</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.02391058583822</v>
+        <v>17.20870397134147</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>32.54874346183666</v>
+        <v>54.6514759068215</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.52311506836602</v>
+        <v>57.37667198757191</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.24780229222203</v>
+        <v>14.42201227973564</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>35.76226400945437</v>
+        <v>68.65283990664003</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>39.4442046224719</v>
+        <v>76.88023444471474</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>39.51067136820315</v>
+        <v>81.36196076603937</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>44.21500794981384</v>
+        <v>86.63358182875589</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>45.91929231746309</v>
+        <v>92.75352131525551</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.88149490051847</v>
+        <v>33.97819312528341</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.86675473823639</v>
+        <v>79.50850466701084</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.3827707112756</v>
+        <v>86.28046351286309</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.75257947434925</v>
+        <v>59.49793186014799</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.47765696814122</v>
+        <v>41.77600038239441</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>35.20449593250705</v>
+        <v>49.55150029747745</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.92873168715895</v>
+        <v>58.2323626584338</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.86482243041621</v>
+        <v>17.19497296002899</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>34.9150033562526</v>
+        <v>50.88587952040493</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>38.43535520750401</v>
+        <v>61.3054538795013</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.39049264088725</v>
+        <v>19.2935117097008</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.46123759537999</v>
+        <v>41.12750076685188</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>37.12141496295865</v>
+        <v>50.31458832994173</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>19.02419785618397</v>
+        <v>20.14206226142079</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.54904586291702</v>
+        <v>53.65854532730953</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.52341800377005</v>
+        <v>60.32803009536138</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.24809719234124</v>
+        <v>13.56387269118676</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.76257291757358</v>
+        <v>64.3985284967556</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>39.44451399254155</v>
+        <v>77.20064503942555</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>39.51098583971861</v>
+        <v>68.67224227914315</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>44.21532772798686</v>
+        <v>76.72468505921159</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.91961241524349</v>
+        <v>86.88025214521562</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.88180075377474</v>
+        <v>26.9169260564529</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>43.8670733868576</v>
+        <v>69.9778097243121</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>47.38308995506311</v>
+        <v>83.42244483199042</v>
       </c>
     </row>
   </sheetData>
